--- a/01_Input/Manual_Counts/005_Merged.xlsx
+++ b/01_Input/Manual_Counts/005_Merged.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27628"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Paul\OneDrive - mail.uni-mannheim.de\Uni\Master\Semester 3\Teamproject\Towards-Sustainable-Cities-through-Simulation\01_Input\Manual_Counts\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://mailunimannheimde-my.sharepoint.com/personal/pstapf_mail_uni-mannheim_de/Documents/Uni/Master/Semester 3/Teamproject/Towards-Sustainable-Cities-through-Simulation/01_Input/Manual_Counts/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A19992D2-ADA9-4F08-AA61-B74A2371450F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="13_ncr:1_{A19992D2-ADA9-4F08-AA61-B74A2371450F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F794FE52-415E-45ED-BED3-FFE8601FBBF7}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -88,7 +88,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -138,6 +138,15 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -146,12 +155,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -180,18 +189,18 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{E6B06C13-3D35-4523-B558-5EC1C99ADE37}" name="Tabelle2434" displayName="Tabelle2434" ref="A1:I19" totalsRowShown="0">
-  <autoFilter ref="A1:I19" xr:uid="{E6B06C13-3D35-4523-B558-5EC1C99ADE37}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{47C69A51-B5E7-4FAE-ADED-4F7182906D93}" name="Tabelle24343" displayName="Tabelle24343" ref="A1:I19" totalsRowShown="0">
+  <autoFilter ref="A1:I19" xr:uid="{47C69A51-B5E7-4FAE-ADED-4F7182906D93}"/>
   <tableColumns count="9">
-    <tableColumn id="1" xr3:uid="{64BAF88A-FF40-4578-87CC-3D9D7C7D97CF}" name="Timestamp" dataDxfId="0"/>
-    <tableColumn id="2" xr3:uid="{8EF65C5F-09A0-48FB-BAF0-465B867FCEBA}" name="Motorcycle (L) "/>
-    <tableColumn id="3" xr3:uid="{52D9DB98-6247-4D1C-9F8C-22A7D48A88AF}" name="Motorcycle (R)"/>
-    <tableColumn id="4" xr3:uid="{971DA2C5-C7CD-4D89-86A4-215F4D32356A}" name="LKW (L) "/>
-    <tableColumn id="5" xr3:uid="{3AB94A09-A31B-4A9B-BDEE-99CEEC92A661}" name="LKW (R)"/>
-    <tableColumn id="6" xr3:uid="{01E660B5-EA0C-41DC-8B2D-1461F0F09AFB}" name="Transporter (L) "/>
-    <tableColumn id="7" xr3:uid="{229C0C65-9535-435C-8AAB-1FD4121A828D}" name="Transporter (R)"/>
-    <tableColumn id="10" xr3:uid="{7C5DD9BB-957F-4B3F-9674-140095EFEA2E}" name="PKW (L) "/>
-    <tableColumn id="11" xr3:uid="{198150CD-4622-40AD-8B41-4A50E5208966}" name="PKW (R)"/>
+    <tableColumn id="1" xr3:uid="{545301E1-3503-4234-8E91-403850391EB0}" name="Timestamp" dataDxfId="0"/>
+    <tableColumn id="2" xr3:uid="{F36A9040-BF7E-48EA-8D88-BEB05505D132}" name="Motorcycle (L) "/>
+    <tableColumn id="3" xr3:uid="{C80B9AB9-45B7-45EB-8C08-44AEC8F75671}" name="Motorcycle (R)"/>
+    <tableColumn id="4" xr3:uid="{6B2C4AE0-2BC2-4394-A09F-555960C38DE4}" name="LKW (L) "/>
+    <tableColumn id="5" xr3:uid="{E5A20AF0-E224-4FEC-9360-AA26D49C0507}" name="LKW (R)"/>
+    <tableColumn id="6" xr3:uid="{E02C4BF6-A4E6-4723-A8EE-65DF48E24782}" name="Transporter (L) "/>
+    <tableColumn id="7" xr3:uid="{7930AE3A-A197-4810-A770-24DBBE392DF0}" name="Transporter (R)"/>
+    <tableColumn id="10" xr3:uid="{5F6E08E7-0B2A-4FE7-B70A-C56CE1F2953E}" name="PKW (L) "/>
+    <tableColumn id="11" xr3:uid="{36F4886B-9E57-4EF8-9F39-B7E5A7957FA5}" name="PKW (R)"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -463,7 +472,7 @@
   <dimension ref="A1:K19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:I19"/>
+      <selection activeCell="L11" sqref="L11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -502,7 +511,7 @@
     </row>
     <row r="2" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
-        <v>45393.333333333336</v>
+        <v>45393.340277777781</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -532,7 +541,7 @@
     </row>
     <row r="3" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
-        <v>45393.340277777781</v>
+        <v>45393.347222222219</v>
       </c>
       <c r="B3">
         <v>2</v>
@@ -562,7 +571,7 @@
     </row>
     <row r="4" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
-        <v>45393.347222222219</v>
+        <v>45393.354166666664</v>
       </c>
       <c r="B4">
         <v>1</v>
@@ -592,7 +601,7 @@
     </row>
     <row r="5" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
-        <v>45393.354166666664</v>
+        <v>45393.361111111109</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -622,7 +631,7 @@
     </row>
     <row r="6" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
-        <v>45393.361111111109</v>
+        <v>45393.368055555555</v>
       </c>
       <c r="B6">
         <v>0</v>
@@ -651,8 +660,8 @@
       <c r="K6" s="2"/>
     </row>
     <row r="7" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="1">
-        <v>45393.368055555555</v>
+      <c r="A7" s="8">
+        <v>45393.37499971065</v>
       </c>
       <c r="B7">
         <v>2</v>
@@ -681,38 +690,38 @@
       <c r="K7" s="2"/>
     </row>
     <row r="8" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="3">
-        <v>45393.666666666664</v>
-      </c>
-      <c r="B8" s="4">
-        <v>1</v>
-      </c>
-      <c r="C8" s="5">
-        <v>0</v>
-      </c>
-      <c r="D8" s="5">
-        <v>1</v>
-      </c>
-      <c r="E8" s="5">
+      <c r="A8" s="1">
+        <v>45393.673611111109</v>
+      </c>
+      <c r="B8" s="3">
+        <v>1</v>
+      </c>
+      <c r="C8" s="4">
+        <v>0</v>
+      </c>
+      <c r="D8" s="4">
+        <v>1</v>
+      </c>
+      <c r="E8" s="4">
         <v>7</v>
       </c>
-      <c r="F8" s="5">
+      <c r="F8" s="4">
         <v>4</v>
       </c>
-      <c r="G8" s="5">
+      <c r="G8" s="4">
         <v>25</v>
       </c>
-      <c r="H8" s="5">
+      <c r="H8" s="4">
         <v>31</v>
       </c>
-      <c r="I8" s="5">
+      <c r="I8" s="4">
         <v>117</v>
       </c>
       <c r="K8" s="2"/>
     </row>
     <row r="9" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
-        <v>45393.673611111109</v>
+        <v>45393.680555497682</v>
       </c>
       <c r="B9">
         <v>2</v>
@@ -742,7 +751,7 @@
     </row>
     <row r="10" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
-        <v>45393.680555497682</v>
+        <v>45393.687499942127</v>
       </c>
       <c r="B10">
         <v>0</v>
@@ -772,7 +781,7 @@
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
-        <v>45393.687499942127</v>
+        <v>45393.694444386572</v>
       </c>
       <c r="B11">
         <v>0</v>
@@ -801,7 +810,7 @@
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
-        <v>45393.694444386572</v>
+        <v>45393.701388831018</v>
       </c>
       <c r="B12">
         <v>1</v>
@@ -829,8 +838,8 @@
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A13" s="1">
-        <v>45393.701388831018</v>
+      <c r="A13" s="8">
+        <v>45393.708332986113</v>
       </c>
       <c r="B13">
         <v>1</v>
@@ -858,45 +867,45 @@
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A14" s="3">
-        <v>45393.833333333336</v>
-      </c>
-      <c r="B14" s="5">
-        <v>1</v>
-      </c>
-      <c r="C14" s="5">
-        <v>2</v>
-      </c>
-      <c r="D14" s="5">
-        <v>0</v>
-      </c>
-      <c r="E14" s="5">
-        <v>2</v>
-      </c>
-      <c r="F14" s="5">
-        <v>2</v>
-      </c>
-      <c r="G14" s="5">
+      <c r="A14" s="5">
+        <v>45393.840277777781</v>
+      </c>
+      <c r="B14" s="4">
+        <v>1</v>
+      </c>
+      <c r="C14" s="4">
+        <v>2</v>
+      </c>
+      <c r="D14" s="4">
+        <v>0</v>
+      </c>
+      <c r="E14" s="4">
+        <v>2</v>
+      </c>
+      <c r="F14" s="4">
+        <v>2</v>
+      </c>
+      <c r="G14" s="4">
         <v>15</v>
       </c>
-      <c r="H14" s="5">
+      <c r="H14" s="4">
         <v>22</v>
       </c>
-      <c r="I14" s="5">
+      <c r="I14" s="4">
         <v>54</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A15" s="6">
-        <v>45393.840277777781</v>
+      <c r="A15" s="1">
+        <v>45393.847222222219</v>
       </c>
       <c r="B15">
         <v>0</v>
       </c>
-      <c r="C15" s="7">
-        <v>0</v>
-      </c>
-      <c r="D15" s="8">
+      <c r="C15" s="6">
+        <v>0</v>
+      </c>
+      <c r="D15" s="7">
         <v>0</v>
       </c>
       <c r="E15">
@@ -916,8 +925,8 @@
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A16" s="1">
-        <v>45393.847222222219</v>
+      <c r="A16" s="5">
+        <v>45393.854166666664</v>
       </c>
       <c r="B16">
         <v>1</v>
@@ -945,8 +954,8 @@
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A17" s="6">
-        <v>45393.854166666664</v>
+      <c r="A17" s="1">
+        <v>45393.861111111109</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -975,7 +984,7 @@
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
-        <v>45393.861111111109</v>
+        <v>45393.868055555555</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -1003,8 +1012,8 @@
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A19" s="1">
-        <v>45393.868055555555</v>
+      <c r="A19" s="5">
+        <v>45393.87499971065</v>
       </c>
       <c r="B19">
         <v>0</v>
